--- a/src/main/resources/TestData/Tenure_Leave_Scenarios.xlsx
+++ b/src/main/resources/TestData/Tenure_Leave_Scenarios.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16123" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16206" uniqueCount="366">
   <si>
     <t xml:space="preserve">Test Case</t>
   </si>
@@ -3250,19 +3250,17 @@
   </sheetPr>
   <dimension ref="A1:Z209"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V1" activeCellId="1" sqref="V2:V83 V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.1173469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.7857142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="9.98979591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19375,21 +19373,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X83"/>
+  <dimension ref="A1:Y83"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V2" activeCellId="0" sqref="V2:V83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="22" min="6" style="1" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="14.3112244897959"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19457,12 +19455,15 @@
         <v>20</v>
       </c>
       <c r="V1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -19531,12 +19532,15 @@
         <v>30</v>
       </c>
       <c r="V2" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W2" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X2" s="0" t="s">
+      <c r="Y2" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -19605,16 +19609,19 @@
         <v>30</v>
       </c>
       <c r="V3" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W3" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W3" s="6" t="s">
+      <c r="X3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X3" s="0" t="s">
+      <c r="Y3" s="0" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="113.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
@@ -19679,12 +19686,15 @@
         <v>30</v>
       </c>
       <c r="V4" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W4" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W4" s="6" t="s">
+      <c r="X4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X4" s="0" t="s">
+      <c r="Y4" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -19753,12 +19763,15 @@
         <v>30</v>
       </c>
       <c r="V5" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W5" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W5" s="6" t="s">
+      <c r="X5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X5" s="0" t="s">
+      <c r="Y5" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -19827,12 +19840,15 @@
         <v>30</v>
       </c>
       <c r="V6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W6" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W6" s="6" t="s">
+      <c r="X6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X6" s="0" t="s">
+      <c r="Y6" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -19901,12 +19917,15 @@
         <v>30</v>
       </c>
       <c r="V7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W7" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W7" s="6" t="s">
+      <c r="X7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X7" s="0" t="s">
+      <c r="Y7" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -19975,12 +19994,15 @@
         <v>30</v>
       </c>
       <c r="V8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W8" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W8" s="6" t="s">
+      <c r="X8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X8" s="0" t="s">
+      <c r="Y8" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -20049,16 +20071,19 @@
         <v>27</v>
       </c>
       <c r="V9" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W9" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W9" s="6" t="s">
+      <c r="X9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X9" s="0" t="s">
+      <c r="Y9" s="0" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -20123,12 +20148,15 @@
         <v>30</v>
       </c>
       <c r="V10" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W10" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="6" t="s">
+      <c r="X10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X10" s="0" t="s">
+      <c r="Y10" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -20197,12 +20225,15 @@
         <v>27</v>
       </c>
       <c r="V11" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W11" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W11" s="6" t="s">
+      <c r="X11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X11" s="0" t="s">
+      <c r="Y11" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -20271,12 +20302,15 @@
         <v>30</v>
       </c>
       <c r="V12" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W12" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W12" s="6" t="s">
+      <c r="X12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X12" s="0" t="s">
+      <c r="Y12" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -20345,12 +20379,15 @@
         <v>30</v>
       </c>
       <c r="V13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W13" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W13" s="6" t="s">
+      <c r="X13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X13" s="0" t="s">
+      <c r="Y13" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -20419,16 +20456,19 @@
         <v>27</v>
       </c>
       <c r="V14" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W14" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W14" s="6" t="s">
+      <c r="X14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X14" s="0" t="s">
+      <c r="Y14" s="0" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="147.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -20493,12 +20533,15 @@
         <v>30</v>
       </c>
       <c r="V15" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W15" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W15" s="6" t="s">
+      <c r="X15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X15" s="0" t="s">
+      <c r="Y15" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -20567,12 +20610,15 @@
         <v>27</v>
       </c>
       <c r="V16" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W16" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W16" s="6" t="s">
+      <c r="X16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X16" s="0" t="s">
+      <c r="Y16" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -20641,16 +20687,19 @@
         <v>30</v>
       </c>
       <c r="V17" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W17" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W17" s="6" t="s">
+      <c r="X17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X17" s="0" t="s">
+      <c r="Y17" s="0" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
@@ -20715,16 +20764,19 @@
         <v>30</v>
       </c>
       <c r="V18" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W18" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W18" s="6" t="s">
+      <c r="X18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X18" s="0" t="s">
+      <c r="Y18" s="0" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -20789,16 +20841,19 @@
         <v>27</v>
       </c>
       <c r="V19" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W19" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W19" s="6" t="s">
+      <c r="X19" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X19" s="0" t="s">
+      <c r="Y19" s="0" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="147.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -20863,16 +20918,19 @@
         <v>30</v>
       </c>
       <c r="V20" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W20" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W20" s="6" t="s">
+      <c r="X20" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X20" s="0" t="s">
+      <c r="Y20" s="0" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
@@ -20937,16 +20995,19 @@
         <v>27</v>
       </c>
       <c r="V21" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W21" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W21" s="6" t="s">
+      <c r="X21" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X21" s="0" t="s">
+      <c r="Y21" s="0" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="113.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -21011,12 +21072,15 @@
         <v>30</v>
       </c>
       <c r="V22" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W22" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W22" s="6" t="s">
+      <c r="X22" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X22" s="0" t="s">
+      <c r="Y22" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -21085,12 +21149,15 @@
         <v>30</v>
       </c>
       <c r="V23" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W23" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W23" s="6" t="s">
+      <c r="X23" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X23" s="0" t="s">
+      <c r="Y23" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -21159,16 +21226,19 @@
         <v>27</v>
       </c>
       <c r="V24" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W24" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W24" s="6" t="s">
+      <c r="X24" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X24" s="0" t="s">
+      <c r="Y24" s="0" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -21233,12 +21303,15 @@
         <v>30</v>
       </c>
       <c r="V25" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W25" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W25" s="6" t="s">
+      <c r="X25" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X25" s="0" t="s">
+      <c r="Y25" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -21307,12 +21380,15 @@
         <v>27</v>
       </c>
       <c r="V26" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W26" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W26" s="6" t="s">
+      <c r="X26" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X26" s="0" t="s">
+      <c r="Y26" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -21381,12 +21457,15 @@
         <v>30</v>
       </c>
       <c r="V27" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W27" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W27" s="6" t="s">
+      <c r="X27" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X27" s="0" t="s">
+      <c r="Y27" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -21455,12 +21534,15 @@
         <v>30</v>
       </c>
       <c r="V28" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W28" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W28" s="6" t="s">
+      <c r="X28" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X28" s="0" t="s">
+      <c r="Y28" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -21529,16 +21611,19 @@
         <v>27</v>
       </c>
       <c r="V29" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W29" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W29" s="6" t="s">
+      <c r="X29" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X29" s="0" t="s">
+      <c r="Y29" s="0" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="147.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>25</v>
       </c>
@@ -21603,12 +21688,15 @@
         <v>30</v>
       </c>
       <c r="V30" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W30" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W30" s="6" t="s">
+      <c r="X30" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X30" s="0" t="s">
+      <c r="Y30" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -21677,12 +21765,15 @@
         <v>27</v>
       </c>
       <c r="V31" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W31" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W31" s="6" t="s">
+      <c r="X31" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X31" s="0" t="s">
+      <c r="Y31" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -21751,12 +21842,15 @@
         <v>30</v>
       </c>
       <c r="V32" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W32" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W32" s="6" t="s">
+      <c r="X32" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X32" s="0" t="s">
+      <c r="Y32" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -21825,12 +21919,15 @@
         <v>30</v>
       </c>
       <c r="V33" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W33" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W33" s="6" t="s">
+      <c r="X33" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X33" s="0" t="s">
+      <c r="Y33" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -21899,16 +21996,19 @@
         <v>27</v>
       </c>
       <c r="V34" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W34" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W34" s="6" t="s">
+      <c r="X34" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X34" s="0" t="s">
+      <c r="Y34" s="0" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="147.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>25</v>
       </c>
@@ -21973,12 +22073,15 @@
         <v>30</v>
       </c>
       <c r="V35" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W35" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W35" s="6" t="s">
+      <c r="X35" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X35" s="0" t="s">
+      <c r="Y35" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -22047,12 +22150,15 @@
         <v>27</v>
       </c>
       <c r="V36" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W36" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W36" s="6" t="s">
+      <c r="X36" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X36" s="0" t="s">
+      <c r="Y36" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -22121,12 +22227,15 @@
         <v>30</v>
       </c>
       <c r="V37" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W37" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W37" s="6" t="s">
+      <c r="X37" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X37" s="0" t="s">
+      <c r="Y37" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -22195,12 +22304,15 @@
         <v>30</v>
       </c>
       <c r="V38" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W38" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W38" s="6" t="s">
+      <c r="X38" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X38" s="0" t="s">
+      <c r="Y38" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -22269,16 +22381,19 @@
         <v>27</v>
       </c>
       <c r="V39" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W39" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W39" s="6" t="s">
+      <c r="X39" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X39" s="0" t="s">
+      <c r="Y39" s="0" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="147.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>25</v>
       </c>
@@ -22343,12 +22458,15 @@
         <v>30</v>
       </c>
       <c r="V40" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W40" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W40" s="6" t="s">
+      <c r="X40" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X40" s="0" t="s">
+      <c r="Y40" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -22417,12 +22535,15 @@
         <v>27</v>
       </c>
       <c r="V41" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W41" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W41" s="6" t="s">
+      <c r="X41" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X41" s="0" t="s">
+      <c r="Y41" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -22491,12 +22612,15 @@
         <v>30</v>
       </c>
       <c r="V42" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W42" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W42" s="6" t="s">
+      <c r="X42" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X42" s="0" t="s">
+      <c r="Y42" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -22565,12 +22689,15 @@
         <v>30</v>
       </c>
       <c r="V43" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W43" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W43" s="6" t="s">
+      <c r="X43" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X43" s="0" t="s">
+      <c r="Y43" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -22639,16 +22766,19 @@
         <v>30</v>
       </c>
       <c r="V44" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W44" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W44" s="6" t="s">
+      <c r="X44" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X44" s="0" t="s">
+      <c r="Y44" s="0" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="113.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>25</v>
       </c>
@@ -22713,12 +22843,15 @@
         <v>30</v>
       </c>
       <c r="V45" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W45" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W45" s="6" t="s">
+      <c r="X45" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X45" s="0" t="s">
+      <c r="Y45" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -22787,12 +22920,15 @@
         <v>30</v>
       </c>
       <c r="V46" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W46" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W46" s="6" t="s">
+      <c r="X46" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X46" s="0" t="s">
+      <c r="Y46" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -22861,12 +22997,15 @@
         <v>30</v>
       </c>
       <c r="V47" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W47" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W47" s="6" t="s">
+      <c r="X47" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X47" s="0" t="s">
+      <c r="Y47" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -22935,12 +23074,15 @@
         <v>30</v>
       </c>
       <c r="V48" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W48" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W48" s="6" t="s">
+      <c r="X48" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X48" s="0" t="s">
+      <c r="Y48" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -23009,12 +23151,15 @@
         <v>30</v>
       </c>
       <c r="V49" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W49" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W49" s="6" t="s">
+      <c r="X49" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X49" s="0" t="s">
+      <c r="Y49" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -23083,16 +23228,19 @@
         <v>27</v>
       </c>
       <c r="V50" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W50" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W50" s="6" t="s">
+      <c r="X50" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X50" s="0" t="s">
+      <c r="Y50" s="0" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>25</v>
       </c>
@@ -23157,12 +23305,15 @@
         <v>30</v>
       </c>
       <c r="V51" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W51" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W51" s="6" t="s">
+      <c r="X51" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X51" s="0" t="s">
+      <c r="Y51" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -23231,12 +23382,15 @@
         <v>27</v>
       </c>
       <c r="V52" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W52" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W52" s="6" t="s">
+      <c r="X52" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X52" s="0" t="s">
+      <c r="Y52" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -23305,12 +23459,15 @@
         <v>30</v>
       </c>
       <c r="V53" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W53" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W53" s="6" t="s">
+      <c r="X53" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X53" s="0" t="s">
+      <c r="Y53" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -23379,12 +23536,15 @@
         <v>30</v>
       </c>
       <c r="V54" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W54" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W54" s="6" t="s">
+      <c r="X54" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X54" s="0" t="s">
+      <c r="Y54" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -23453,16 +23613,19 @@
         <v>27</v>
       </c>
       <c r="V55" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W55" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W55" s="6" t="s">
+      <c r="X55" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X55" s="0" t="s">
+      <c r="Y55" s="0" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="147.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>25</v>
       </c>
@@ -23527,12 +23690,15 @@
         <v>30</v>
       </c>
       <c r="V56" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W56" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W56" s="6" t="s">
+      <c r="X56" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X56" s="0" t="s">
+      <c r="Y56" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -23601,12 +23767,15 @@
         <v>27</v>
       </c>
       <c r="V57" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W57" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W57" s="6" t="s">
+      <c r="X57" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X57" s="0" t="s">
+      <c r="Y57" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -23675,16 +23844,19 @@
         <v>30</v>
       </c>
       <c r="V58" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W58" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W58" s="6" t="s">
+      <c r="X58" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X58" s="0" t="s">
+      <c r="Y58" s="0" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>25</v>
       </c>
@@ -23749,16 +23921,19 @@
         <v>30</v>
       </c>
       <c r="V59" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W59" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W59" s="6" t="s">
+      <c r="X59" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X59" s="0" t="s">
+      <c r="Y59" s="0" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>25</v>
       </c>
@@ -23823,16 +23998,19 @@
         <v>27</v>
       </c>
       <c r="V60" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W60" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W60" s="6" t="s">
+      <c r="X60" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X60" s="0" t="s">
+      <c r="Y60" s="0" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="147.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>25</v>
       </c>
@@ -23897,16 +24075,19 @@
         <v>30</v>
       </c>
       <c r="V61" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W61" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W61" s="6" t="s">
+      <c r="X61" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X61" s="0" t="s">
+      <c r="Y61" s="0" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>25</v>
       </c>
@@ -23971,16 +24152,19 @@
         <v>27</v>
       </c>
       <c r="V62" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W62" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W62" s="6" t="s">
+      <c r="X62" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X62" s="0" t="s">
+      <c r="Y62" s="0" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="113.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>25</v>
       </c>
@@ -24045,12 +24229,15 @@
         <v>30</v>
       </c>
       <c r="V63" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W63" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W63" s="6" t="s">
+      <c r="X63" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X63" s="0" t="s">
+      <c r="Y63" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -24119,12 +24306,15 @@
         <v>30</v>
       </c>
       <c r="V64" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W64" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W64" s="6" t="s">
+      <c r="X64" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X64" s="0" t="s">
+      <c r="Y64" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -24193,16 +24383,19 @@
         <v>27</v>
       </c>
       <c r="V65" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W65" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W65" s="6" t="s">
+      <c r="X65" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X65" s="0" t="s">
+      <c r="Y65" s="0" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>25</v>
       </c>
@@ -24267,12 +24460,15 @@
         <v>30</v>
       </c>
       <c r="V66" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W66" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W66" s="6" t="s">
+      <c r="X66" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X66" s="0" t="s">
+      <c r="Y66" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -24341,12 +24537,15 @@
         <v>27</v>
       </c>
       <c r="V67" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W67" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W67" s="6" t="s">
+      <c r="X67" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X67" s="0" t="s">
+      <c r="Y67" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -24415,12 +24614,15 @@
         <v>30</v>
       </c>
       <c r="V68" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W68" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W68" s="6" t="s">
+      <c r="X68" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X68" s="0" t="s">
+      <c r="Y68" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -24489,12 +24691,15 @@
         <v>30</v>
       </c>
       <c r="V69" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W69" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W69" s="6" t="s">
+      <c r="X69" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X69" s="0" t="s">
+      <c r="Y69" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -24563,16 +24768,19 @@
         <v>27</v>
       </c>
       <c r="V70" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W70" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W70" s="6" t="s">
+      <c r="X70" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X70" s="0" t="s">
+      <c r="Y70" s="0" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="147.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>25</v>
       </c>
@@ -24637,12 +24845,15 @@
         <v>30</v>
       </c>
       <c r="V71" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W71" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W71" s="6" t="s">
+      <c r="X71" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X71" s="0" t="s">
+      <c r="Y71" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -24711,12 +24922,15 @@
         <v>27</v>
       </c>
       <c r="V72" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W72" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W72" s="6" t="s">
+      <c r="X72" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X72" s="0" t="s">
+      <c r="Y72" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -24785,12 +24999,15 @@
         <v>30</v>
       </c>
       <c r="V73" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W73" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W73" s="6" t="s">
+      <c r="X73" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X73" s="0" t="s">
+      <c r="Y73" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -24859,12 +25076,15 @@
         <v>30</v>
       </c>
       <c r="V74" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W74" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W74" s="6" t="s">
+      <c r="X74" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X74" s="0" t="s">
+      <c r="Y74" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -24933,16 +25153,19 @@
         <v>27</v>
       </c>
       <c r="V75" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W75" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W75" s="6" t="s">
+      <c r="X75" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X75" s="0" t="s">
+      <c r="Y75" s="0" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="147.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
         <v>25</v>
       </c>
@@ -25007,12 +25230,15 @@
         <v>30</v>
       </c>
       <c r="V76" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W76" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W76" s="6" t="s">
+      <c r="X76" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X76" s="0" t="s">
+      <c r="Y76" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -25081,12 +25307,15 @@
         <v>27</v>
       </c>
       <c r="V77" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W77" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W77" s="6" t="s">
+      <c r="X77" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X77" s="0" t="s">
+      <c r="Y77" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -25155,12 +25384,15 @@
         <v>30</v>
       </c>
       <c r="V78" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W78" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W78" s="6" t="s">
+      <c r="X78" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X78" s="0" t="s">
+      <c r="Y78" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -25229,12 +25461,15 @@
         <v>30</v>
       </c>
       <c r="V79" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W79" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W79" s="6" t="s">
+      <c r="X79" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X79" s="0" t="s">
+      <c r="Y79" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -25303,16 +25538,19 @@
         <v>27</v>
       </c>
       <c r="V80" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W80" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W80" s="6" t="s">
+      <c r="X80" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X80" s="0" t="s">
+      <c r="Y80" s="0" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="147.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
         <v>25</v>
       </c>
@@ -25377,12 +25615,15 @@
         <v>30</v>
       </c>
       <c r="V81" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W81" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W81" s="6" t="s">
+      <c r="X81" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X81" s="0" t="s">
+      <c r="Y81" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -25451,12 +25692,15 @@
         <v>27</v>
       </c>
       <c r="V82" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W82" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W82" s="6" t="s">
+      <c r="X82" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X82" s="0" t="s">
+      <c r="Y82" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -25525,12 +25769,15 @@
         <v>30</v>
       </c>
       <c r="V83" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W83" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="W83" s="6" t="s">
+      <c r="X83" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X83" s="0" t="s">
+      <c r="Y83" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -25553,15 +25800,16 @@
   <dimension ref="A1:U83"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A80" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E85" activeCellId="0" sqref="E85"/>
+      <selection pane="topLeft" activeCell="E85" activeCellId="1" sqref="V2:V83 E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30978,14 +31226,12 @@
   <dimension ref="A1:U83"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="V2:V83 B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="61.9591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="61.2857142857143"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36402,18 +36648,16 @@
   <dimension ref="A1:Z209"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="V2:V83 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="27.780612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="27.4030612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="9.98979591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52529,13 +52773,10 @@
   <dimension ref="A1:U121"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="V2:V83 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
@@ -60421,12 +60662,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="V2:V83 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/src/main/resources/TestData/Tenure_Leave_Scenarios.xlsx
+++ b/src/main/resources/TestData/Tenure_Leave_Scenarios.xlsx
@@ -17,10 +17,10 @@
     <sheet name="Sheet8" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">All_Without_Probation!$A$1:$Y$83</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">All_Without_Probation!$A$1:$Y$83</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">All_Without_Probation!$A$1:$Y$83</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">All_Without_Probation!$A$1:$Y$83</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">All_Without_Probation!$A$1:$Y$83</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -3249,10 +3249,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -3266,11 +3262,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19380,24 +19378,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:Y83"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="22" min="6" style="1" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="23" style="6" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="22" min="6" style="1" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="23" style="6" width="13.0918367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19477,7 +19475,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="68.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -19554,7 +19552,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="113.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -19631,7 +19629,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="113.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
@@ -19708,7 +19706,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="113.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -19785,7 +19783,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="113.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -19862,7 +19860,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="113.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -19947,7 +19945,7 @@
         <v>145</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>241</v>
@@ -20024,7 +20022,7 @@
         <v>146</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>241</v>
@@ -20101,7 +20099,7 @@
         <v>147</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>241</v>
@@ -20170,7 +20168,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -20178,7 +20176,7 @@
         <v>148</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>241</v>
@@ -20255,7 +20253,7 @@
         <v>149</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>241</v>
@@ -20324,7 +20322,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="147" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -20401,7 +20399,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -20478,7 +20476,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="147" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -20555,7 +20553,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -20632,7 +20630,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -20709,7 +20707,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="147" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
@@ -20786,7 +20784,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -20863,7 +20861,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="147" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -20940,7 +20938,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
@@ -21017,7 +21015,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -21094,7 +21092,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="147" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -21171,7 +21169,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -21248,7 +21246,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="147" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -21325,7 +21323,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -21402,7 +21400,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -21479,7 +21477,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="147" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
@@ -21556,7 +21554,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
@@ -21633,7 +21631,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="147" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>25</v>
       </c>
@@ -21710,7 +21708,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>25</v>
       </c>
@@ -21787,7 +21785,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>25</v>
       </c>
@@ -21864,7 +21862,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="147" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>25</v>
       </c>
@@ -21941,7 +21939,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>25</v>
       </c>
@@ -22018,7 +22016,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="147" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>25</v>
       </c>
@@ -22095,7 +22093,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>25</v>
       </c>
@@ -22172,7 +22170,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>25</v>
       </c>
@@ -22249,7 +22247,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="147" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>25</v>
       </c>
@@ -22326,7 +22324,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>25</v>
       </c>
@@ -22403,7 +22401,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="147" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>25</v>
       </c>
@@ -22480,7 +22478,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>25</v>
       </c>
@@ -22557,7 +22555,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>25</v>
       </c>
@@ -22634,7 +22632,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="68.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>25</v>
       </c>
@@ -22642,7 +22640,7 @@
         <v>26</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>241</v>
@@ -22711,7 +22709,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="113.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>25</v>
       </c>
@@ -22719,7 +22717,7 @@
         <v>34</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>241</v>
@@ -22788,7 +22786,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="113.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>25</v>
       </c>
@@ -22796,7 +22794,7 @@
         <v>36</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>241</v>
@@ -22865,7 +22863,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="113.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>25</v>
       </c>
@@ -22873,7 +22871,7 @@
         <v>37</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>241</v>
@@ -22942,7 +22940,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="113.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>25</v>
       </c>
@@ -22950,7 +22948,7 @@
         <v>38</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>241</v>
@@ -23019,7 +23017,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="113.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>25</v>
       </c>
@@ -23027,7 +23025,7 @@
         <v>39</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>241</v>
@@ -23327,7 +23325,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>25</v>
       </c>
@@ -23481,7 +23479,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>25</v>
       </c>
@@ -23489,7 +23487,7 @@
         <v>45</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>241</v>
@@ -23558,7 +23556,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>25</v>
       </c>
@@ -23566,7 +23564,7 @@
         <v>47</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>241</v>
@@ -23635,7 +23633,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="147" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>25</v>
       </c>
@@ -23643,7 +23641,7 @@
         <v>49</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>241</v>
@@ -23712,7 +23710,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>25</v>
       </c>
@@ -23720,7 +23718,7 @@
         <v>51</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>241</v>
@@ -23789,7 +23787,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>25</v>
       </c>
@@ -23797,7 +23795,7 @@
         <v>53</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>241</v>
@@ -23866,7 +23864,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>25</v>
       </c>
@@ -23874,7 +23872,7 @@
         <v>55</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>241</v>
@@ -23943,7 +23941,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>25</v>
       </c>
@@ -23951,7 +23949,7 @@
         <v>56</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>241</v>
@@ -24020,7 +24018,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="147" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>25</v>
       </c>
@@ -24028,7 +24026,7 @@
         <v>57</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>241</v>
@@ -24097,7 +24095,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>25</v>
       </c>
@@ -24105,7 +24103,7 @@
         <v>58</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>241</v>
@@ -24174,7 +24172,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>25</v>
       </c>
@@ -24182,7 +24180,7 @@
         <v>59</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>241</v>
@@ -24251,7 +24249,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>25</v>
       </c>
@@ -24259,7 +24257,7 @@
         <v>60</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>241</v>
@@ -24328,7 +24326,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>25</v>
       </c>
@@ -24336,7 +24334,7 @@
         <v>61</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>241</v>
@@ -24405,7 +24403,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="147" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>25</v>
       </c>
@@ -24413,7 +24411,7 @@
         <v>62</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>241</v>
@@ -24482,7 +24480,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>25</v>
       </c>
@@ -24490,7 +24488,7 @@
         <v>63</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>241</v>
@@ -24559,7 +24557,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>25</v>
       </c>
@@ -24567,7 +24565,7 @@
         <v>64</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>241</v>
@@ -24636,7 +24634,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>25</v>
       </c>
@@ -24644,7 +24642,7 @@
         <v>65</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>241</v>
@@ -24713,7 +24711,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>25</v>
       </c>
@@ -24721,7 +24719,7 @@
         <v>67</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>241</v>
@@ -24790,7 +24788,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="147" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>25</v>
       </c>
@@ -24798,7 +24796,7 @@
         <v>69</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>241</v>
@@ -24867,7 +24865,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>25</v>
       </c>
@@ -24875,7 +24873,7 @@
         <v>71</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>241</v>
@@ -24944,7 +24942,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
         <v>25</v>
       </c>
@@ -24952,7 +24950,7 @@
         <v>73</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>241</v>
@@ -25021,7 +25019,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>25</v>
       </c>
@@ -25029,7 +25027,7 @@
         <v>75</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>241</v>
@@ -25098,7 +25096,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
         <v>25</v>
       </c>
@@ -25106,7 +25104,7 @@
         <v>76</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>241</v>
@@ -25175,7 +25173,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="147" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
         <v>25</v>
       </c>
@@ -25183,7 +25181,7 @@
         <v>77</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>241</v>
@@ -25252,7 +25250,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
         <v>25</v>
       </c>
@@ -25260,7 +25258,7 @@
         <v>78</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>241</v>
@@ -25329,7 +25327,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
         <v>25</v>
       </c>
@@ -25337,7 +25335,7 @@
         <v>79</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>241</v>
@@ -25406,7 +25404,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
         <v>25</v>
       </c>
@@ -25414,7 +25412,7 @@
         <v>80</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>241</v>
@@ -25483,7 +25481,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
         <v>25</v>
       </c>
@@ -25491,7 +25489,7 @@
         <v>81</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>241</v>
@@ -25560,7 +25558,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="147" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
         <v>25</v>
       </c>
@@ -25568,7 +25566,7 @@
         <v>82</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>241</v>
@@ -25637,7 +25635,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
         <v>25</v>
       </c>
@@ -25645,7 +25643,7 @@
         <v>83</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>241</v>
@@ -25714,7 +25712,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
         <v>25</v>
       </c>
@@ -25722,7 +25720,7 @@
         <v>84</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>241</v>
@@ -25792,18 +25790,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y83">
-    <filterColumn colId="10">
-      <customFilters and="true">
-        <customFilter operator="equal" val="No"/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="15">
-      <customFilters and="true">
-        <customFilter operator="equal" val="Yes"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -25811,7 +25797,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -25828,11 +25813,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="6" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="25.1071428571429"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="6" width="7.56122448979592"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31254,7 +31239,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="58.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="57.7755102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36676,11 +36663,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.9183673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.515306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52800,6 +52789,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
@@ -60690,7 +60682,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="6" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="6" width="10.3928571428571"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/src/main/resources/TestData/Tenure_Leave_Scenarios.xlsx
+++ b/src/main/resources/TestData/Tenure_Leave_Scenarios.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16206" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16206" uniqueCount="448">
   <si>
     <t xml:space="preserve">Test Case</t>
   </si>
@@ -2023,7 +2023,817 @@
 Accrual time frame: Biannual</t>
   </si>
   <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: No,
+Accrual: No,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
     <t xml:space="preserve">Leave Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Not allowed,
+Accrual: No,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Half,
+Accrual: No,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Full,
+Accrual: No,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Half,
+Accrual: No,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Full,
+Accrual: No,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: No,
+Accrual: Yes,
+Accrual time frame: Month,
+ Accrual point: Begin of month,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: No,
+Accrual: Yes,
+Accrual time frame: Month, Accrual point: End of month,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: No,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: Begin of Quarter,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: No,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: End of Quarter,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: No,
+Accrual: Yes,
+Accrual time frame: Biannual,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Month,
+ Accrual point: Begin of month,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Month, Accrual point: End of month,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: Begin of Quarter,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: End of Quarter,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Biannual,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Month,
+ Accrual point: Begin of month,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Month, Accrual point: End of month,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: Begin of Quarter,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: End of Quarter,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Biannual,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Month,
+ Accrual point: Begin of month,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Month, Accrual point: End of month,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: Begin of Quarter,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: End of Quarter,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Biannual,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Month,
+ Accrual point: Begin of month,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Month, Accrual point: End of month,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: Begin of Quarter,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: End of Quarter,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Biannual,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Month,
+ Accrual point: Begin of month,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Month, Accrual point: End of month,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: Begin of Quarter,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: End of Quarter,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Biannual,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Month,
+ Accrual point: Begin of month,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Month, Accrual point: End of month,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: Begin of Quarter,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: End of Quarter,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Biannual,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: No,
+Accrual: No,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Not allowed,
+Accrual: No,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Half,
+Accrual: No,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Full,
+Accrual: No,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Half,
+Accrual: No,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Full,
+Accrual: No,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: No,
+Accrual: Yes,
+Accrual time frame: Month,
+ Accrual point: Begin of month,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: No,
+Accrual: Yes,
+Accrual time frame: Month, Accrual point: End of month,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: No,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: Begin of Quarter,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: No,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: End of Quarter,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: No,
+Accrual: Yes,
+Accrual time frame: Biannual,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Month,
+ Accrual point: Begin of month,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Month, Accrual point: End of month,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: Begin of Quarter,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: End of Quarter,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Biannual,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Month,
+ Accrual point: Begin of month,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Month, Accrual point: End of month,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: Begin of Quarter,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: End of Quarter,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Biannual,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Month,
+ Accrual point: Begin of month,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Month, Accrual point: End of month,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: Begin of Quarter,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: End of Quarter,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Biannual,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Month,
+ Accrual point: Begin of month,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Month, Accrual point: End of month,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: Begin of Quarter,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: End of Quarter,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Biannual,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Month,
+ Accrual point: Begin of month,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Month, Accrual point: End of month,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: Begin of Quarter,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: End of Quarter,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Biannual,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Month,
+ Accrual point: Begin of month,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Month, Accrual point: End of month,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: Begin of Quarter,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: End of Quarter,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Biannual,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
   </si>
   <si>
     <t xml:space="preserve">Leave Scenario is--
@@ -3262,13 +4072,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19384,18 +20194,18 @@
   <dimension ref="A1:Y83"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="22" min="6" style="1" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="23" style="6" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="23.0816326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="22" min="6" style="1" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="23" style="6" width="12.8265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19475,18 +20285,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>137</v>
+        <v>241</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>12</v>
@@ -19552,18 +20362,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>139</v>
+        <v>243</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>12</v>
@@ -19629,18 +20439,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>141</v>
+        <v>244</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>12</v>
@@ -19706,18 +20516,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>142</v>
+        <v>245</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>12</v>
@@ -19783,18 +20593,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>143</v>
+        <v>246</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>12</v>
@@ -19860,18 +20670,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>144</v>
+        <v>247</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>12</v>
@@ -19937,18 +20747,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>145</v>
+        <v>248</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>12</v>
@@ -20014,18 +20824,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>146</v>
+        <v>249</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>12</v>
@@ -20091,18 +20901,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>147</v>
+        <v>250</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>12</v>
@@ -20168,18 +20978,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>148</v>
+        <v>251</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>12</v>
@@ -20245,18 +21055,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>12</v>
@@ -20322,18 +21132,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>150</v>
+        <v>253</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>12</v>
@@ -20399,18 +21209,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>152</v>
+        <v>254</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>12</v>
@@ -20476,18 +21286,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>154</v>
+        <v>255</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>12</v>
@@ -20553,18 +21363,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>156</v>
+        <v>256</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>12</v>
@@ -20630,18 +21440,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>157</v>
+        <v>257</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>12</v>
@@ -20707,18 +21517,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>159</v>
+        <v>258</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>12</v>
@@ -20784,18 +21594,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>160</v>
+        <v>259</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>12</v>
@@ -20861,18 +21671,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>161</v>
+        <v>260</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>12</v>
@@ -20938,18 +21748,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>162</v>
+        <v>261</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>12</v>
@@ -21015,18 +21825,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>163</v>
+        <v>262</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>12</v>
@@ -21092,18 +21902,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>164</v>
+        <v>263</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>12</v>
@@ -21169,18 +21979,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>165</v>
+        <v>264</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>12</v>
@@ -21246,18 +22056,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>166</v>
+        <v>265</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E25" s="2" t="n">
         <v>12</v>
@@ -21323,18 +22133,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>167</v>
+        <v>266</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>12</v>
@@ -21400,18 +22210,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>168</v>
+        <v>267</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>12</v>
@@ -21477,18 +22287,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>169</v>
+        <v>268</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>12</v>
@@ -21554,18 +22364,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>171</v>
+        <v>269</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E29" s="2" t="n">
         <v>12</v>
@@ -21631,18 +22441,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>173</v>
+        <v>270</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>12</v>
@@ -21708,18 +22518,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>175</v>
+        <v>271</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>12</v>
@@ -21785,18 +22595,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>177</v>
+        <v>272</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>12</v>
@@ -21862,18 +22672,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>179</v>
+        <v>273</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E33" s="2" t="n">
         <v>12</v>
@@ -21939,18 +22749,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>180</v>
+        <v>274</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>12</v>
@@ -22016,18 +22826,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>181</v>
+        <v>275</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E35" s="2" t="n">
         <v>12</v>
@@ -22093,18 +22903,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>182</v>
+        <v>276</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E36" s="2" t="n">
         <v>12</v>
@@ -22170,18 +22980,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>183</v>
+        <v>277</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E37" s="2" t="n">
         <v>12</v>
@@ -22247,18 +23057,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>184</v>
+        <v>278</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E38" s="2" t="n">
         <v>12</v>
@@ -22324,18 +23134,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>185</v>
+        <v>279</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E39" s="2" t="n">
         <v>12</v>
@@ -22401,18 +23211,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E40" s="2" t="n">
         <v>12</v>
@@ -22478,18 +23288,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>187</v>
+        <v>281</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E41" s="2" t="n">
         <v>12</v>
@@ -22555,18 +23365,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>188</v>
+        <v>282</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E42" s="2" t="n">
         <v>12</v>
@@ -22632,18 +23442,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>26</v>
+        <v>283</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E43" s="2" t="n">
         <v>12</v>
@@ -22709,18 +23519,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>34</v>
+        <v>284</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E44" s="2" t="n">
         <v>12</v>
@@ -22786,18 +23596,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>36</v>
+        <v>285</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E45" s="2" t="n">
         <v>12</v>
@@ -22863,18 +23673,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>37</v>
+        <v>286</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E46" s="2" t="n">
         <v>12</v>
@@ -22940,18 +23750,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>38</v>
+        <v>287</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E47" s="2" t="n">
         <v>12</v>
@@ -23017,18 +23827,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>39</v>
+        <v>288</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E48" s="2" t="n">
         <v>12</v>
@@ -23094,18 +23904,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>40</v>
+        <v>289</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E49" s="2" t="n">
         <v>12</v>
@@ -23171,18 +23981,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>41</v>
+        <v>290</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E50" s="2" t="n">
         <v>12</v>
@@ -23248,18 +24058,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>42</v>
+        <v>291</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E51" s="2" t="n">
         <v>12</v>
@@ -23325,18 +24135,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>43</v>
+        <v>292</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E52" s="2" t="n">
         <v>12</v>
@@ -23402,18 +24212,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>44</v>
+        <v>293</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E53" s="2" t="n">
         <v>12</v>
@@ -23479,18 +24289,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>45</v>
+        <v>294</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E54" s="2" t="n">
         <v>12</v>
@@ -23556,18 +24366,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>47</v>
+        <v>295</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E55" s="2" t="n">
         <v>12</v>
@@ -23633,18 +24443,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>49</v>
+        <v>296</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E56" s="2" t="n">
         <v>12</v>
@@ -23710,18 +24520,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>51</v>
+        <v>297</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E57" s="2" t="n">
         <v>12</v>
@@ -23787,18 +24597,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>53</v>
+        <v>298</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E58" s="2" t="n">
         <v>12</v>
@@ -23864,18 +24674,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>55</v>
+        <v>299</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E59" s="2" t="n">
         <v>12</v>
@@ -23941,18 +24751,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>56</v>
+        <v>300</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E60" s="2" t="n">
         <v>12</v>
@@ -24018,18 +24828,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>57</v>
+        <v>301</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E61" s="2" t="n">
         <v>12</v>
@@ -24095,18 +24905,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>58</v>
+        <v>302</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E62" s="2" t="n">
         <v>12</v>
@@ -24172,18 +24982,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>59</v>
+        <v>303</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E63" s="2" t="n">
         <v>12</v>
@@ -24249,18 +25059,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>60</v>
+        <v>304</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E64" s="2" t="n">
         <v>12</v>
@@ -24326,18 +25136,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>61</v>
+        <v>305</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E65" s="2" t="n">
         <v>12</v>
@@ -24403,18 +25213,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>62</v>
+        <v>306</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E66" s="2" t="n">
         <v>12</v>
@@ -24480,18 +25290,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>63</v>
+        <v>307</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E67" s="2" t="n">
         <v>12</v>
@@ -24557,18 +25367,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>64</v>
+        <v>308</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E68" s="2" t="n">
         <v>12</v>
@@ -24634,18 +25444,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>65</v>
+        <v>309</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E69" s="2" t="n">
         <v>12</v>
@@ -24711,18 +25521,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>67</v>
+        <v>310</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E70" s="2" t="n">
         <v>12</v>
@@ -24788,18 +25598,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>69</v>
+        <v>311</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E71" s="2" t="n">
         <v>12</v>
@@ -24865,18 +25675,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>71</v>
+        <v>312</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E72" s="2" t="n">
         <v>12</v>
@@ -24942,18 +25752,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>73</v>
+        <v>313</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E73" s="2" t="n">
         <v>12</v>
@@ -25019,18 +25829,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>75</v>
+        <v>314</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E74" s="2" t="n">
         <v>12</v>
@@ -25096,18 +25906,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>76</v>
+        <v>315</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E75" s="2" t="n">
         <v>12</v>
@@ -25173,18 +25983,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>77</v>
+        <v>316</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E76" s="2" t="n">
         <v>12</v>
@@ -25250,18 +26060,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>78</v>
+        <v>317</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E77" s="2" t="n">
         <v>12</v>
@@ -25327,18 +26137,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>79</v>
+        <v>318</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E78" s="2" t="n">
         <v>12</v>
@@ -25404,18 +26214,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>80</v>
+        <v>319</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E79" s="2" t="n">
         <v>12</v>
@@ -25481,18 +26291,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>81</v>
+        <v>320</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E80" s="2" t="n">
         <v>12</v>
@@ -25558,18 +26368,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>82</v>
+        <v>321</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E81" s="2" t="n">
         <v>12</v>
@@ -25635,18 +26445,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>83</v>
+        <v>322</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E82" s="2" t="n">
         <v>12</v>
@@ -25712,18 +26522,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>84</v>
+        <v>323</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E83" s="2" t="n">
         <v>12</v>
@@ -25813,11 +26623,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="25.1071428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="6" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="6" width="7.29081632653061"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25890,7 +26700,7 @@
         <v>25</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>242</v>
+        <v>324</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>27</v>
@@ -25955,7 +26765,7 @@
         <v>25</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>243</v>
+        <v>325</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>27</v>
@@ -26020,7 +26830,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>244</v>
+        <v>326</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>27</v>
@@ -26085,7 +26895,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>245</v>
+        <v>327</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>27</v>
@@ -26150,7 +26960,7 @@
         <v>25</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>246</v>
+        <v>328</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>27</v>
@@ -26215,7 +27025,7 @@
         <v>25</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>247</v>
+        <v>329</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>27</v>
@@ -26280,7 +27090,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>248</v>
+        <v>330</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>27</v>
@@ -26345,7 +27155,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>249</v>
+        <v>331</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>27</v>
@@ -26410,7 +27220,7 @@
         <v>25</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>250</v>
+        <v>332</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>27</v>
@@ -26475,7 +27285,7 @@
         <v>25</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>251</v>
+        <v>333</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>27</v>
@@ -26540,7 +27350,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>252</v>
+        <v>334</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>27</v>
@@ -26605,7 +27415,7 @@
         <v>25</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>253</v>
+        <v>335</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>27</v>
@@ -26670,7 +27480,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>254</v>
+        <v>336</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>27</v>
@@ -26735,7 +27545,7 @@
         <v>25</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>255</v>
+        <v>337</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>27</v>
@@ -26800,7 +27610,7 @@
         <v>25</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>256</v>
+        <v>338</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>27</v>
@@ -26865,7 +27675,7 @@
         <v>25</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>257</v>
+        <v>339</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>27</v>
@@ -26930,7 +27740,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>258</v>
+        <v>340</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>27</v>
@@ -26995,7 +27805,7 @@
         <v>25</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>259</v>
+        <v>341</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>27</v>
@@ -27060,7 +27870,7 @@
         <v>25</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>260</v>
+        <v>342</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>27</v>
@@ -27125,7 +27935,7 @@
         <v>25</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>261</v>
+        <v>343</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>27</v>
@@ -27190,7 +28000,7 @@
         <v>25</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>262</v>
+        <v>344</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>27</v>
@@ -27255,7 +28065,7 @@
         <v>25</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>263</v>
+        <v>345</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>27</v>
@@ -27320,7 +28130,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>264</v>
+        <v>346</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>27</v>
@@ -27385,7 +28195,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>265</v>
+        <v>347</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>27</v>
@@ -27450,7 +28260,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>266</v>
+        <v>348</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>27</v>
@@ -27515,7 +28325,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>267</v>
+        <v>349</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>27</v>
@@ -27580,7 +28390,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>268</v>
+        <v>350</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>27</v>
@@ -27645,7 +28455,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>269</v>
+        <v>351</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>27</v>
@@ -27710,7 +28520,7 @@
         <v>25</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>270</v>
+        <v>352</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>27</v>
@@ -27775,7 +28585,7 @@
         <v>25</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>271</v>
+        <v>353</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>27</v>
@@ -27840,7 +28650,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>272</v>
+        <v>354</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>27</v>
@@ -27905,7 +28715,7 @@
         <v>25</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>273</v>
+        <v>355</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>27</v>
@@ -27970,7 +28780,7 @@
         <v>25</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>274</v>
+        <v>356</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>27</v>
@@ -28035,7 +28845,7 @@
         <v>25</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>275</v>
+        <v>357</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>27</v>
@@ -28100,7 +28910,7 @@
         <v>25</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>276</v>
+        <v>358</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>27</v>
@@ -28165,7 +28975,7 @@
         <v>25</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>277</v>
+        <v>359</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>27</v>
@@ -28230,7 +29040,7 @@
         <v>25</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>278</v>
+        <v>360</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>27</v>
@@ -28295,7 +29105,7 @@
         <v>25</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>279</v>
+        <v>361</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>27</v>
@@ -28360,7 +29170,7 @@
         <v>25</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>280</v>
+        <v>362</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>27</v>
@@ -28425,7 +29235,7 @@
         <v>25</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>281</v>
+        <v>363</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>27</v>
@@ -28490,7 +29300,7 @@
         <v>25</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>282</v>
+        <v>364</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>27</v>
@@ -31239,9 +32049,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="57.7755102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="56.2908163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31314,7 +32124,7 @@
         <v>25</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>283</v>
+        <v>365</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>27</v>
@@ -31379,7 +32189,7 @@
         <v>25</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>284</v>
+        <v>366</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>27</v>
@@ -31444,7 +32254,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>285</v>
+        <v>367</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>27</v>
@@ -31509,7 +32319,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>286</v>
+        <v>368</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>27</v>
@@ -31574,7 +32384,7 @@
         <v>25</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>287</v>
+        <v>369</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>27</v>
@@ -31639,7 +32449,7 @@
         <v>25</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>288</v>
+        <v>370</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>27</v>
@@ -31704,7 +32514,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>289</v>
+        <v>371</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>27</v>
@@ -31769,7 +32579,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>290</v>
+        <v>372</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>27</v>
@@ -31834,7 +32644,7 @@
         <v>25</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>291</v>
+        <v>373</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>27</v>
@@ -31899,7 +32709,7 @@
         <v>25</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>292</v>
+        <v>374</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>27</v>
@@ -31964,7 +32774,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>293</v>
+        <v>375</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>27</v>
@@ -32029,7 +32839,7 @@
         <v>25</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>294</v>
+        <v>376</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>27</v>
@@ -32094,7 +32904,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>295</v>
+        <v>377</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>27</v>
@@ -32159,7 +32969,7 @@
         <v>25</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>296</v>
+        <v>378</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>27</v>
@@ -32224,7 +33034,7 @@
         <v>25</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>297</v>
+        <v>379</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>27</v>
@@ -32289,7 +33099,7 @@
         <v>25</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>298</v>
+        <v>380</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>27</v>
@@ -32354,7 +33164,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>299</v>
+        <v>381</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>27</v>
@@ -32419,7 +33229,7 @@
         <v>25</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>300</v>
+        <v>382</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>27</v>
@@ -32484,7 +33294,7 @@
         <v>25</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>301</v>
+        <v>383</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>27</v>
@@ -32549,7 +33359,7 @@
         <v>25</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>302</v>
+        <v>384</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>27</v>
@@ -32614,7 +33424,7 @@
         <v>25</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>303</v>
+        <v>385</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>27</v>
@@ -32679,7 +33489,7 @@
         <v>25</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>304</v>
+        <v>386</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>27</v>
@@ -32744,7 +33554,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>305</v>
+        <v>387</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>27</v>
@@ -32809,7 +33619,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>306</v>
+        <v>388</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>27</v>
@@ -32874,7 +33684,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>307</v>
+        <v>389</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>27</v>
@@ -32939,7 +33749,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>308</v>
+        <v>390</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>27</v>
@@ -33004,7 +33814,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>309</v>
+        <v>391</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>27</v>
@@ -33069,7 +33879,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>310</v>
+        <v>392</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>27</v>
@@ -33134,7 +33944,7 @@
         <v>25</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>311</v>
+        <v>393</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>27</v>
@@ -33199,7 +34009,7 @@
         <v>25</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>312</v>
+        <v>394</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>27</v>
@@ -33264,7 +34074,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>313</v>
+        <v>395</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>27</v>
@@ -33329,7 +34139,7 @@
         <v>25</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>314</v>
+        <v>396</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>27</v>
@@ -33394,7 +34204,7 @@
         <v>25</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>315</v>
+        <v>397</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>27</v>
@@ -33459,7 +34269,7 @@
         <v>25</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>316</v>
+        <v>398</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>27</v>
@@ -33524,7 +34334,7 @@
         <v>25</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>317</v>
+        <v>399</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>27</v>
@@ -33589,7 +34399,7 @@
         <v>25</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>318</v>
+        <v>400</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>27</v>
@@ -33654,7 +34464,7 @@
         <v>25</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>319</v>
+        <v>401</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>27</v>
@@ -33719,7 +34529,7 @@
         <v>25</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>320</v>
+        <v>402</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>27</v>
@@ -33784,7 +34594,7 @@
         <v>25</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>321</v>
+        <v>403</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>27</v>
@@ -33849,7 +34659,7 @@
         <v>25</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>322</v>
+        <v>404</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>27</v>
@@ -33914,7 +34724,7 @@
         <v>25</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>323</v>
+        <v>405</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>27</v>
@@ -33979,7 +34789,7 @@
         <v>25</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>324</v>
+        <v>406</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>27</v>
@@ -34044,7 +34854,7 @@
         <v>25</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>325</v>
+        <v>407</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>27</v>
@@ -34109,7 +34919,7 @@
         <v>25</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>326</v>
+        <v>408</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>27</v>
@@ -34174,7 +34984,7 @@
         <v>25</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>327</v>
+        <v>409</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>27</v>
@@ -34239,7 +35049,7 @@
         <v>25</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>328</v>
+        <v>410</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>27</v>
@@ -34304,7 +35114,7 @@
         <v>25</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>329</v>
+        <v>411</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>27</v>
@@ -34369,7 +35179,7 @@
         <v>25</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>330</v>
+        <v>412</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>27</v>
@@ -34434,7 +35244,7 @@
         <v>25</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>331</v>
+        <v>413</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>27</v>
@@ -34499,7 +35309,7 @@
         <v>25</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>27</v>
@@ -34564,7 +35374,7 @@
         <v>25</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>333</v>
+        <v>415</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>27</v>
@@ -34629,7 +35439,7 @@
         <v>25</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>334</v>
+        <v>416</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>27</v>
@@ -34694,7 +35504,7 @@
         <v>25</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>335</v>
+        <v>417</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>27</v>
@@ -34759,7 +35569,7 @@
         <v>25</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>336</v>
+        <v>418</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>27</v>
@@ -34824,7 +35634,7 @@
         <v>25</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>337</v>
+        <v>419</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>27</v>
@@ -34889,7 +35699,7 @@
         <v>25</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>338</v>
+        <v>420</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>27</v>
@@ -34954,7 +35764,7 @@
         <v>25</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>339</v>
+        <v>421</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>27</v>
@@ -35019,7 +35829,7 @@
         <v>25</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>340</v>
+        <v>422</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>27</v>
@@ -35084,7 +35894,7 @@
         <v>25</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>341</v>
+        <v>423</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>27</v>
@@ -35149,7 +35959,7 @@
         <v>25</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>342</v>
+        <v>424</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>27</v>
@@ -35214,7 +36024,7 @@
         <v>25</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>343</v>
+        <v>425</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>27</v>
@@ -35279,7 +36089,7 @@
         <v>25</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>344</v>
+        <v>426</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>27</v>
@@ -35344,7 +36154,7 @@
         <v>25</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>345</v>
+        <v>427</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>27</v>
@@ -35409,7 +36219,7 @@
         <v>25</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>346</v>
+        <v>428</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>27</v>
@@ -35474,7 +36284,7 @@
         <v>25</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>347</v>
+        <v>429</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>27</v>
@@ -35539,7 +36349,7 @@
         <v>25</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>348</v>
+        <v>430</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>27</v>
@@ -35604,7 +36414,7 @@
         <v>25</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>349</v>
+        <v>431</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>27</v>
@@ -35669,7 +36479,7 @@
         <v>25</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>350</v>
+        <v>432</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>27</v>
@@ -35734,7 +36544,7 @@
         <v>25</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>351</v>
+        <v>433</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>27</v>
@@ -35799,7 +36609,7 @@
         <v>25</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>352</v>
+        <v>434</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>27</v>
@@ -35864,7 +36674,7 @@
         <v>25</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>353</v>
+        <v>435</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>27</v>
@@ -35929,7 +36739,7 @@
         <v>25</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>354</v>
+        <v>436</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>27</v>
@@ -35994,7 +36804,7 @@
         <v>25</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>355</v>
+        <v>437</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>27</v>
@@ -36059,7 +36869,7 @@
         <v>25</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>356</v>
+        <v>438</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>27</v>
@@ -36124,7 +36934,7 @@
         <v>25</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>357</v>
+        <v>439</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>27</v>
@@ -36189,7 +36999,7 @@
         <v>25</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>358</v>
+        <v>440</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>27</v>
@@ -36254,7 +37064,7 @@
         <v>25</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>359</v>
+        <v>441</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>27</v>
@@ -36319,7 +37129,7 @@
         <v>25</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>360</v>
+        <v>442</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>27</v>
@@ -36384,7 +37194,7 @@
         <v>25</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>361</v>
+        <v>443</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>27</v>
@@ -36449,7 +37259,7 @@
         <v>25</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>362</v>
+        <v>444</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>27</v>
@@ -36514,7 +37324,7 @@
         <v>25</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>363</v>
+        <v>445</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>27</v>
@@ -36579,7 +37389,7 @@
         <v>25</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>364</v>
+        <v>446</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>27</v>
@@ -36663,13 +37473,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.515306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.9744897959184"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52790,7 +53600,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52869,7 +53679,7 @@
         <v>30</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>12</v>
@@ -52934,7 +53744,7 @@
         <v>30</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>12</v>
@@ -52999,7 +53809,7 @@
         <v>30</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>12</v>
@@ -53064,7 +53874,7 @@
         <v>30</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>12</v>
@@ -53129,7 +53939,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>12</v>
@@ -53194,7 +54004,7 @@
         <v>30</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>12</v>
@@ -53259,7 +54069,7 @@
         <v>30</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>12</v>
@@ -53324,7 +54134,7 @@
         <v>30</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>12</v>
@@ -53389,7 +54199,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>12</v>
@@ -53454,7 +54264,7 @@
         <v>30</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>12</v>
@@ -53519,7 +54329,7 @@
         <v>30</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>12</v>
@@ -53584,7 +54394,7 @@
         <v>30</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>12</v>
@@ -53649,7 +54459,7 @@
         <v>30</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>12</v>
@@ -53714,7 +54524,7 @@
         <v>30</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>12</v>
@@ -53779,7 +54589,7 @@
         <v>30</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>12</v>
@@ -53844,7 +54654,7 @@
         <v>27</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>12</v>
@@ -53909,7 +54719,7 @@
         <v>30</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>12</v>
@@ -53974,7 +54784,7 @@
         <v>30</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>12</v>
@@ -54039,7 +54849,7 @@
         <v>30</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>12</v>
@@ -54104,7 +54914,7 @@
         <v>30</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>12</v>
@@ -54169,7 +54979,7 @@
         <v>30</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>12</v>
@@ -54234,7 +55044,7 @@
         <v>30</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>12</v>
@@ -54299,7 +55109,7 @@
         <v>30</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>12</v>
@@ -54364,7 +55174,7 @@
         <v>30</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E25" s="2" t="n">
         <v>12</v>
@@ -54429,7 +55239,7 @@
         <v>30</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>12</v>
@@ -54494,7 +55304,7 @@
         <v>30</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>12</v>
@@ -54559,7 +55369,7 @@
         <v>30</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>12</v>
@@ -54624,7 +55434,7 @@
         <v>30</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E29" s="2" t="n">
         <v>12</v>
@@ -54689,7 +55499,7 @@
         <v>30</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>12</v>
@@ -54754,7 +55564,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>12</v>
@@ -54819,7 +55629,7 @@
         <v>30</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>12</v>
@@ -54884,7 +55694,7 @@
         <v>30</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E33" s="2" t="n">
         <v>12</v>
@@ -54949,7 +55759,7 @@
         <v>30</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>12</v>
@@ -55014,7 +55824,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E35" s="2" t="n">
         <v>12</v>
@@ -55079,7 +55889,7 @@
         <v>30</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E36" s="2" t="n">
         <v>12</v>
@@ -55144,7 +55954,7 @@
         <v>30</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E37" s="2" t="n">
         <v>12</v>
@@ -55209,7 +56019,7 @@
         <v>30</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E38" s="2" t="n">
         <v>12</v>
@@ -55274,7 +56084,7 @@
         <v>30</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E39" s="2" t="n">
         <v>12</v>
@@ -55339,7 +56149,7 @@
         <v>30</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E40" s="2" t="n">
         <v>12</v>
@@ -55404,7 +56214,7 @@
         <v>30</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E41" s="2" t="n">
         <v>12</v>
@@ -55469,7 +56279,7 @@
         <v>30</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E42" s="2" t="n">
         <v>12</v>
@@ -55534,7 +56344,7 @@
         <v>30</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E43" s="2" t="n">
         <v>12</v>
@@ -55599,7 +56409,7 @@
         <v>30</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E44" s="2" t="n">
         <v>12</v>
@@ -55664,7 +56474,7 @@
         <v>30</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E45" s="2" t="n">
         <v>12</v>
@@ -55729,7 +56539,7 @@
         <v>30</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E46" s="2" t="n">
         <v>12</v>
@@ -55794,7 +56604,7 @@
         <v>30</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E47" s="2" t="n">
         <v>12</v>
@@ -55859,7 +56669,7 @@
         <v>30</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E48" s="2" t="n">
         <v>12</v>
@@ -55924,7 +56734,7 @@
         <v>30</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E49" s="2" t="n">
         <v>12</v>
@@ -55989,7 +56799,7 @@
         <v>30</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E50" s="2" t="n">
         <v>12</v>
@@ -56054,7 +56864,7 @@
         <v>30</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E51" s="2" t="n">
         <v>12</v>
@@ -56119,7 +56929,7 @@
         <v>30</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E52" s="2" t="n">
         <v>12</v>
@@ -56184,7 +56994,7 @@
         <v>30</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E53" s="2" t="n">
         <v>12</v>
@@ -56249,7 +57059,7 @@
         <v>30</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E54" s="2" t="n">
         <v>12</v>
@@ -56314,7 +57124,7 @@
         <v>30</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E55" s="2" t="n">
         <v>12</v>
@@ -56379,7 +57189,7 @@
         <v>30</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E56" s="2" t="n">
         <v>12</v>
@@ -56444,7 +57254,7 @@
         <v>30</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E57" s="2" t="n">
         <v>12</v>
@@ -56509,7 +57319,7 @@
         <v>30</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E58" s="2" t="n">
         <v>12</v>
@@ -56574,7 +57384,7 @@
         <v>30</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E59" s="2" t="n">
         <v>12</v>
@@ -56639,7 +57449,7 @@
         <v>30</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E60" s="2" t="n">
         <v>12</v>
@@ -56704,7 +57514,7 @@
         <v>30</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E61" s="2" t="n">
         <v>12</v>
@@ -56769,7 +57579,7 @@
         <v>30</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E62" s="2" t="n">
         <v>12</v>
@@ -56834,7 +57644,7 @@
         <v>30</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E63" s="2" t="n">
         <v>12</v>
@@ -56899,7 +57709,7 @@
         <v>30</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E64" s="2" t="n">
         <v>12</v>
@@ -56964,7 +57774,7 @@
         <v>30</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E65" s="2" t="n">
         <v>12</v>
@@ -57029,7 +57839,7 @@
         <v>30</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E66" s="2" t="n">
         <v>12</v>
@@ -57094,7 +57904,7 @@
         <v>30</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E67" s="2" t="n">
         <v>12</v>
@@ -57159,7 +57969,7 @@
         <v>30</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E68" s="2" t="n">
         <v>12</v>
@@ -57224,7 +58034,7 @@
         <v>30</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E69" s="2" t="n">
         <v>12</v>
@@ -57289,7 +58099,7 @@
         <v>30</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E70" s="2" t="n">
         <v>12</v>
@@ -57354,7 +58164,7 @@
         <v>30</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E71" s="2" t="n">
         <v>12</v>
@@ -57419,7 +58229,7 @@
         <v>30</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E72" s="2" t="n">
         <v>12</v>
@@ -57484,7 +58294,7 @@
         <v>30</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E73" s="2" t="n">
         <v>12</v>
@@ -57549,7 +58359,7 @@
         <v>30</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E74" s="2" t="n">
         <v>12</v>
@@ -57614,7 +58424,7 @@
         <v>30</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E75" s="2" t="n">
         <v>12</v>
@@ -57679,7 +58489,7 @@
         <v>30</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E76" s="2" t="n">
         <v>12</v>
@@ -57744,7 +58554,7 @@
         <v>30</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E77" s="2" t="n">
         <v>12</v>
@@ -57809,7 +58619,7 @@
         <v>30</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E78" s="2" t="n">
         <v>12</v>
@@ -57874,7 +58684,7 @@
         <v>30</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E79" s="2" t="n">
         <v>12</v>
@@ -57939,7 +58749,7 @@
         <v>30</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E80" s="2" t="n">
         <v>12</v>
@@ -58004,7 +58814,7 @@
         <v>30</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E81" s="2" t="n">
         <v>12</v>
@@ -58069,7 +58879,7 @@
         <v>30</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E82" s="2" t="n">
         <v>12</v>
@@ -58134,7 +58944,7 @@
         <v>30</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E83" s="2" t="n">
         <v>12</v>
@@ -58199,7 +59009,7 @@
         <v>30</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E84" s="2" t="n">
         <v>12</v>
@@ -58264,7 +59074,7 @@
         <v>30</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E85" s="2" t="n">
         <v>12</v>
@@ -58329,7 +59139,7 @@
         <v>30</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E86" s="2" t="n">
         <v>12</v>
@@ -58394,7 +59204,7 @@
         <v>30</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E87" s="2" t="n">
         <v>12</v>
@@ -58459,7 +59269,7 @@
         <v>30</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E88" s="2" t="n">
         <v>12</v>
@@ -58524,7 +59334,7 @@
         <v>30</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E89" s="2" t="n">
         <v>12</v>
@@ -58589,7 +59399,7 @@
         <v>30</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E90" s="2" t="n">
         <v>12</v>
@@ -58654,7 +59464,7 @@
         <v>30</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E91" s="2" t="n">
         <v>12</v>
@@ -58719,7 +59529,7 @@
         <v>30</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E92" s="2" t="n">
         <v>12</v>
@@ -58784,7 +59594,7 @@
         <v>30</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E93" s="2" t="n">
         <v>12</v>
@@ -58849,7 +59659,7 @@
         <v>30</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E94" s="2" t="n">
         <v>12</v>
@@ -58914,7 +59724,7 @@
         <v>30</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E95" s="2" t="n">
         <v>12</v>
@@ -58979,7 +59789,7 @@
         <v>30</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E96" s="2" t="n">
         <v>12</v>
@@ -59044,7 +59854,7 @@
         <v>30</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E97" s="2" t="n">
         <v>12</v>
@@ -59109,7 +59919,7 @@
         <v>30</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E98" s="2" t="n">
         <v>12</v>
@@ -59174,7 +59984,7 @@
         <v>30</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E99" s="2" t="n">
         <v>12</v>
@@ -59239,7 +60049,7 @@
         <v>30</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E100" s="2" t="n">
         <v>12</v>
@@ -59304,7 +60114,7 @@
         <v>30</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E101" s="2" t="n">
         <v>12</v>
@@ -59369,7 +60179,7 @@
         <v>30</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E102" s="2" t="n">
         <v>12</v>
@@ -59434,7 +60244,7 @@
         <v>30</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E103" s="2" t="n">
         <v>12</v>
@@ -59499,7 +60309,7 @@
         <v>30</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E104" s="2" t="n">
         <v>12</v>
@@ -59564,7 +60374,7 @@
         <v>30</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E105" s="2" t="n">
         <v>12</v>
@@ -59629,7 +60439,7 @@
         <v>30</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E106" s="2" t="n">
         <v>12</v>
@@ -59694,7 +60504,7 @@
         <v>30</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E107" s="2" t="n">
         <v>12</v>
@@ -59759,7 +60569,7 @@
         <v>30</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E108" s="2" t="n">
         <v>12</v>
@@ -59824,7 +60634,7 @@
         <v>30</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E109" s="2" t="n">
         <v>12</v>
@@ -59889,7 +60699,7 @@
         <v>30</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E110" s="2" t="n">
         <v>12</v>
@@ -59954,7 +60764,7 @@
         <v>30</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E111" s="2" t="n">
         <v>12</v>
@@ -60019,7 +60829,7 @@
         <v>30</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E112" s="2" t="n">
         <v>12</v>
@@ -60084,7 +60894,7 @@
         <v>30</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E113" s="2" t="n">
         <v>12</v>
@@ -60149,7 +60959,7 @@
         <v>30</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E114" s="2" t="n">
         <v>12</v>
@@ -60214,7 +61024,7 @@
         <v>30</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E115" s="2" t="n">
         <v>12</v>
@@ -60279,7 +61089,7 @@
         <v>30</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E116" s="2" t="n">
         <v>12</v>
@@ -60344,7 +61154,7 @@
         <v>30</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E117" s="2" t="n">
         <v>12</v>
@@ -60409,7 +61219,7 @@
         <v>30</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E118" s="2" t="n">
         <v>12</v>
@@ -60474,7 +61284,7 @@
         <v>30</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E119" s="2" t="n">
         <v>12</v>
@@ -60539,7 +61349,7 @@
         <v>30</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E120" s="2" t="n">
         <v>12</v>
@@ -60604,7 +61414,7 @@
         <v>30</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E121" s="2" t="n">
         <v>12</v>
@@ -60682,7 +61492,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="6" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="6" width="10.1224489795918"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/src/main/resources/TestData/Tenure_Leave_Scenarios.xlsx
+++ b/src/main/resources/TestData/Tenure_Leave_Scenarios.xlsx
@@ -79,7 +79,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Half Month Leaves if employee joins after 15</t>
     </r>
@@ -90,7 +89,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">th</t>
     </r>
@@ -102,7 +100,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Full Month Leaves if employee joins after 15</t>
     </r>
@@ -113,7 +110,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">th</t>
     </r>
@@ -3943,7 +3939,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3965,7 +3960,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -3973,7 +3967,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4072,13 +4065,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="23.4897959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="23.0816326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="8.77551020408163"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20193,19 +20184,19 @@
   </sheetPr>
   <dimension ref="A1:Y83"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="23.0816326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="22" min="6" style="1" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="23" style="6" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="45.5714285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="22" min="6" style="1" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="23" style="6" width="12.6887755102041"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26623,11 +26614,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="6" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="6" width="7.1530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32049,9 +32040,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="56.2908163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="55.6173469387755"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37473,13 +37462,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.9744897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.7040816326531"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="8.77551020408163"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53599,9 +53586,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
@@ -61492,7 +61476,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="6" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="6" width="9.98979591836735"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/src/main/resources/TestData/Tenure_Leave_Scenarios.xlsx
+++ b/src/main/resources/TestData/Tenure_Leave_Scenarios.xlsx
@@ -79,6 +79,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Half Month Leaves if employee joins after 15</t>
     </r>
@@ -89,6 +90,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">th</t>
     </r>
@@ -100,6 +102,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Full Month Leaves if employee joins after 15</t>
     </r>
@@ -110,6 +113,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">th</t>
     </r>
@@ -2027,7 +2031,7 @@
 Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
   </si>
   <si>
-    <t xml:space="preserve">Leave Testing</t>
+    <t xml:space="preserve">Tenure Testing</t>
   </si>
   <si>
     <t xml:space="preserve">Leave Scenario is--
@@ -3939,6 +3943,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3960,6 +3965,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -3967,6 +3973,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4065,11 +4072,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="23.0816326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20184,19 +20193,19 @@
   </sheetPr>
   <dimension ref="A1:Y83"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="45.5714285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="22" min="6" style="1" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="23" style="6" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="44.9540816326531"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="22" min="6" style="1" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="23" style="6" width="12.5561224489796"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20276,7 +20285,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -20353,7 +20362,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -20430,7 +20439,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
@@ -20507,7 +20516,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -20584,7 +20593,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -20661,7 +20670,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -20738,7 +20747,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -20815,7 +20824,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -20892,7 +20901,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -20969,7 +20978,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -21046,7 +21055,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
@@ -21123,7 +21132,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -21200,7 +21209,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -21277,7 +21286,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -21354,7 +21363,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -21431,7 +21440,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -21508,7 +21517,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
@@ -21585,7 +21594,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -21662,7 +21671,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -21739,7 +21748,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
@@ -21816,7 +21825,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -21893,7 +21902,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -21970,7 +21979,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -22047,7 +22056,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -22124,7 +22133,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -22201,7 +22210,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -22278,7 +22287,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
@@ -22355,7 +22364,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
@@ -22432,7 +22441,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>25</v>
       </c>
@@ -22509,7 +22518,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>25</v>
       </c>
@@ -22586,7 +22595,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>25</v>
       </c>
@@ -22663,7 +22672,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>25</v>
       </c>
@@ -22740,7 +22749,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>25</v>
       </c>
@@ -22817,7 +22826,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>25</v>
       </c>
@@ -22894,7 +22903,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>25</v>
       </c>
@@ -22971,7 +22980,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>25</v>
       </c>
@@ -23048,7 +23057,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>25</v>
       </c>
@@ -23125,7 +23134,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>25</v>
       </c>
@@ -23202,7 +23211,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>25</v>
       </c>
@@ -23279,7 +23288,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>25</v>
       </c>
@@ -23356,7 +23365,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>25</v>
       </c>
@@ -23433,7 +23442,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>25</v>
       </c>
@@ -23510,7 +23519,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>25</v>
       </c>
@@ -23587,7 +23596,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>25</v>
       </c>
@@ -23664,7 +23673,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>25</v>
       </c>
@@ -23741,7 +23750,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>25</v>
       </c>
@@ -23818,7 +23827,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>25</v>
       </c>
@@ -23895,7 +23904,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>25</v>
       </c>
@@ -23972,7 +23981,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>25</v>
       </c>
@@ -24049,7 +24058,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>25</v>
       </c>
@@ -24126,7 +24135,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>25</v>
       </c>
@@ -24203,7 +24212,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>25</v>
       </c>
@@ -24280,7 +24289,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>25</v>
       </c>
@@ -24357,7 +24366,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>25</v>
       </c>
@@ -24434,7 +24443,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>25</v>
       </c>
@@ -24511,7 +24520,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>25</v>
       </c>
@@ -24588,7 +24597,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>25</v>
       </c>
@@ -24665,7 +24674,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>25</v>
       </c>
@@ -24742,7 +24751,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>25</v>
       </c>
@@ -24819,7 +24828,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>25</v>
       </c>
@@ -24896,7 +24905,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>25</v>
       </c>
@@ -24973,7 +24982,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>25</v>
       </c>
@@ -25050,7 +25059,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>25</v>
       </c>
@@ -25127,7 +25136,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>25</v>
       </c>
@@ -25204,7 +25213,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>25</v>
       </c>
@@ -25281,7 +25290,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>25</v>
       </c>
@@ -25358,7 +25367,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>25</v>
       </c>
@@ -25435,7 +25444,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>25</v>
       </c>
@@ -25512,7 +25521,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>25</v>
       </c>
@@ -25589,7 +25598,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>25</v>
       </c>
@@ -25666,7 +25675,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>25</v>
       </c>
@@ -25743,7 +25752,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
         <v>25</v>
       </c>
@@ -25820,7 +25829,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>25</v>
       </c>
@@ -25897,7 +25906,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
         <v>25</v>
       </c>
@@ -25974,7 +25983,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
         <v>25</v>
       </c>
@@ -26051,7 +26060,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
         <v>25</v>
       </c>
@@ -26128,7 +26137,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
         <v>25</v>
       </c>
@@ -26205,7 +26214,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
         <v>25</v>
       </c>
@@ -26282,7 +26291,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
         <v>25</v>
       </c>
@@ -26359,7 +26368,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
         <v>25</v>
       </c>
@@ -26436,7 +26445,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
         <v>25</v>
       </c>
@@ -26513,7 +26522,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
         <v>25</v>
       </c>
@@ -26614,11 +26623,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="6" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="6" width="7.02040816326531"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32040,7 +32049,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="55.6173469387755"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="54.9438775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37462,11 +37473,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.7040816326531"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.4336734693878"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53586,6 +53599,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
@@ -61476,7 +61492,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="6" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="6" width="9.85204081632653"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/src/main/resources/TestData/Tenure_Leave_Scenarios.xlsx
+++ b/src/main/resources/TestData/Tenure_Leave_Scenarios.xlsx
@@ -4066,19 +4066,19 @@
   </sheetPr>
   <dimension ref="A1:Z209"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A209" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C224" activeCellId="0" sqref="C224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20194,18 +20194,18 @@
   <dimension ref="A1:Y83"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="44.9540816326531"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="22" min="6" style="1" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="23" style="6" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="44.4132653061225"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="22" min="6" style="1" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="23" style="6" width="12.4183673469388"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26623,11 +26623,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="7.02040816326531"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="6" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="6" width="6.88265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32049,9 +32049,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="54.9438775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="54.4030612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37473,13 +37473,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.4336734693878"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.1632653061224"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53600,7 +53600,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -61492,7 +61492,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="6" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="6" width="9.71938775510204"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/src/main/resources/TestData/Tenure_Leave_Scenarios.xlsx
+++ b/src/main/resources/TestData/Tenure_Leave_Scenarios.xlsx
@@ -17,6 +17,7 @@
     <sheet name="Sheet8" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">All_Without_Probation!$A$1:$Y$83</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">All_Without_Probation!$A$1:$Y$83</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">All_Without_Probation!$A$1:$Y$83</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">All_Without_Probation!$A$1:$Y$83</definedName>
@@ -4059,6 +4060,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -4072,13 +4077,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20188,24 +20193,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:Y83"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B56" activeCellId="0" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="44.4132653061225"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="22" min="6" style="1" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="23" style="6" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="43.8724489795918"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="22" min="6" style="1" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="23" style="6" width="12.2857142857143"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20285,7 +20290,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -20293,7 +20298,7 @@
         <v>241</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>242</v>
@@ -20362,7 +20367,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="102.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -20370,7 +20375,7 @@
         <v>243</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>242</v>
@@ -20439,7 +20444,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="102.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
@@ -20447,7 +20452,7 @@
         <v>244</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>242</v>
@@ -20516,7 +20521,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="102.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -20524,7 +20529,7 @@
         <v>245</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>242</v>
@@ -20593,7 +20598,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="102.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -20601,7 +20606,7 @@
         <v>246</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>242</v>
@@ -20670,7 +20675,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="102.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -20678,7 +20683,7 @@
         <v>247</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>242</v>
@@ -20747,7 +20752,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="102.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -20755,7 +20760,7 @@
         <v>248</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>242</v>
@@ -20824,7 +20829,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="102.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -20832,7 +20837,7 @@
         <v>249</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>242</v>
@@ -20901,7 +20906,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="102.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -20909,7 +20914,7 @@
         <v>250</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>242</v>
@@ -20978,7 +20983,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="102.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -20986,7 +20991,7 @@
         <v>251</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>242</v>
@@ -21055,7 +21060,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
@@ -21063,7 +21068,7 @@
         <v>252</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>242</v>
@@ -21132,7 +21137,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -21140,7 +21145,7 @@
         <v>253</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>242</v>
@@ -21209,7 +21214,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -21217,7 +21222,7 @@
         <v>254</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>242</v>
@@ -21286,7 +21291,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -21294,7 +21299,7 @@
         <v>255</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>242</v>
@@ -21363,7 +21368,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -21371,7 +21376,7 @@
         <v>256</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>242</v>
@@ -21440,7 +21445,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="113.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -21448,7 +21453,7 @@
         <v>257</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>242</v>
@@ -21517,7 +21522,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
@@ -21525,7 +21530,7 @@
         <v>258</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>242</v>
@@ -21594,7 +21599,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -21602,7 +21607,7 @@
         <v>259</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>242</v>
@@ -21671,7 +21676,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -21679,7 +21684,7 @@
         <v>260</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>242</v>
@@ -21748,7 +21753,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
@@ -21756,7 +21761,7 @@
         <v>261</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>242</v>
@@ -21825,7 +21830,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="113.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -21833,7 +21838,7 @@
         <v>262</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>242</v>
@@ -21902,7 +21907,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -21910,7 +21915,7 @@
         <v>263</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>242</v>
@@ -21979,7 +21984,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -21987,7 +21992,7 @@
         <v>264</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>242</v>
@@ -22056,7 +22061,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -22064,7 +22069,7 @@
         <v>265</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>242</v>
@@ -22133,7 +22138,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -22141,7 +22146,7 @@
         <v>266</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>242</v>
@@ -22210,7 +22215,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="113.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -22218,7 +22223,7 @@
         <v>267</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>242</v>
@@ -22287,7 +22292,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
@@ -22295,7 +22300,7 @@
         <v>268</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>242</v>
@@ -22364,7 +22369,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
@@ -22372,7 +22377,7 @@
         <v>269</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>242</v>
@@ -22441,7 +22446,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>25</v>
       </c>
@@ -22449,7 +22454,7 @@
         <v>270</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>242</v>
@@ -22518,7 +22523,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>25</v>
       </c>
@@ -22526,7 +22531,7 @@
         <v>271</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>242</v>
@@ -22595,7 +22600,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="113.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>25</v>
       </c>
@@ -22603,7 +22608,7 @@
         <v>272</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>242</v>
@@ -22672,7 +22677,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>25</v>
       </c>
@@ -22680,7 +22685,7 @@
         <v>273</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>242</v>
@@ -22749,7 +22754,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>25</v>
       </c>
@@ -22757,7 +22762,7 @@
         <v>274</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>242</v>
@@ -22826,7 +22831,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>25</v>
       </c>
@@ -22834,7 +22839,7 @@
         <v>275</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>242</v>
@@ -22903,7 +22908,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>25</v>
       </c>
@@ -22911,7 +22916,7 @@
         <v>276</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>242</v>
@@ -22980,7 +22985,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="113.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>25</v>
       </c>
@@ -22988,7 +22993,7 @@
         <v>277</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>242</v>
@@ -23057,7 +23062,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>25</v>
       </c>
@@ -23065,7 +23070,7 @@
         <v>278</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>242</v>
@@ -23134,7 +23139,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>25</v>
       </c>
@@ -23142,7 +23147,7 @@
         <v>279</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>242</v>
@@ -23211,7 +23216,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>25</v>
       </c>
@@ -23219,7 +23224,7 @@
         <v>280</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>242</v>
@@ -23288,7 +23293,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>25</v>
       </c>
@@ -23296,7 +23301,7 @@
         <v>281</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>242</v>
@@ -23365,7 +23370,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="113.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>25</v>
       </c>
@@ -23373,7 +23378,7 @@
         <v>282</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>242</v>
@@ -23442,7 +23447,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>25</v>
       </c>
@@ -23450,7 +23455,7 @@
         <v>283</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>242</v>
@@ -23519,7 +23524,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="102.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>25</v>
       </c>
@@ -23527,7 +23532,7 @@
         <v>284</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>242</v>
@@ -23596,7 +23601,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="102.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>25</v>
       </c>
@@ -23604,7 +23609,7 @@
         <v>285</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>242</v>
@@ -23673,7 +23678,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="102.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>25</v>
       </c>
@@ -23681,7 +23686,7 @@
         <v>286</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>242</v>
@@ -23750,7 +23755,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="102.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>25</v>
       </c>
@@ -23758,7 +23763,7 @@
         <v>287</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>242</v>
@@ -23827,7 +23832,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="102.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>25</v>
       </c>
@@ -23835,7 +23840,7 @@
         <v>288</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>242</v>
@@ -23904,7 +23909,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="102.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>25</v>
       </c>
@@ -23912,7 +23917,7 @@
         <v>289</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>242</v>
@@ -23981,7 +23986,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="102.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>25</v>
       </c>
@@ -23989,7 +23994,7 @@
         <v>290</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>242</v>
@@ -24058,7 +24063,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="102.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>25</v>
       </c>
@@ -24066,7 +24071,7 @@
         <v>291</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>242</v>
@@ -24135,7 +24140,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="102.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>25</v>
       </c>
@@ -24143,7 +24148,7 @@
         <v>292</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>242</v>
@@ -24212,7 +24217,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>25</v>
       </c>
@@ -24220,7 +24225,7 @@
         <v>293</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>242</v>
@@ -24289,7 +24294,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>25</v>
       </c>
@@ -24297,7 +24302,7 @@
         <v>294</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>242</v>
@@ -24366,7 +24371,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>25</v>
       </c>
@@ -24374,7 +24379,7 @@
         <v>295</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>242</v>
@@ -24451,7 +24456,7 @@
         <v>296</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>242</v>
@@ -24528,7 +24533,7 @@
         <v>297</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>242</v>
@@ -24597,7 +24602,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="113.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>25</v>
       </c>
@@ -24605,7 +24610,7 @@
         <v>298</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>242</v>
@@ -24674,7 +24679,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>25</v>
       </c>
@@ -24682,7 +24687,7 @@
         <v>299</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>242</v>
@@ -24751,7 +24756,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>25</v>
       </c>
@@ -24759,7 +24764,7 @@
         <v>300</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>242</v>
@@ -24982,7 +24987,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="113.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>25</v>
       </c>
@@ -24990,7 +24995,7 @@
         <v>303</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>242</v>
@@ -25059,7 +25064,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>25</v>
       </c>
@@ -25067,7 +25072,7 @@
         <v>304</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>242</v>
@@ -25136,7 +25141,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>25</v>
       </c>
@@ -25144,7 +25149,7 @@
         <v>305</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>242</v>
@@ -25367,7 +25372,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="113.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>25</v>
       </c>
@@ -25375,7 +25380,7 @@
         <v>308</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>242</v>
@@ -25444,7 +25449,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>25</v>
       </c>
@@ -25452,7 +25457,7 @@
         <v>309</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>242</v>
@@ -25521,7 +25526,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>25</v>
       </c>
@@ -25529,7 +25534,7 @@
         <v>310</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>242</v>
@@ -25606,7 +25611,7 @@
         <v>311</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>242</v>
@@ -25683,7 +25688,7 @@
         <v>312</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>242</v>
@@ -25752,7 +25757,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="113.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
         <v>25</v>
       </c>
@@ -25760,7 +25765,7 @@
         <v>313</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>242</v>
@@ -25829,7 +25834,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>25</v>
       </c>
@@ -25837,7 +25842,7 @@
         <v>314</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>242</v>
@@ -25906,7 +25911,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
         <v>25</v>
       </c>
@@ -25914,7 +25919,7 @@
         <v>315</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>242</v>
@@ -25991,7 +25996,7 @@
         <v>316</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>242</v>
@@ -26068,7 +26073,7 @@
         <v>317</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>242</v>
@@ -26137,7 +26142,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="113.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
         <v>25</v>
       </c>
@@ -26145,7 +26150,7 @@
         <v>318</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>242</v>
@@ -26214,7 +26219,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
         <v>25</v>
       </c>
@@ -26222,7 +26227,7 @@
         <v>319</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>242</v>
@@ -26291,7 +26296,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
         <v>25</v>
       </c>
@@ -26299,7 +26304,7 @@
         <v>320</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>242</v>
@@ -26376,7 +26381,7 @@
         <v>321</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>242</v>
@@ -26453,7 +26458,7 @@
         <v>322</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>242</v>
@@ -26522,7 +26527,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="113.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
         <v>25</v>
       </c>
@@ -26530,7 +26535,7 @@
         <v>323</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>242</v>
@@ -26600,6 +26605,23 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Y83">
+    <filterColumn colId="10">
+      <customFilters and="true">
+        <customFilter operator="equal" val="Yes"/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="17">
+      <customFilters and="true">
+        <customFilter operator="equal" val="Yes"/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <customFilters and="true">
+        <customFilter operator="equal" val="Financial Year"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -26607,6 +26629,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -26623,11 +26646,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="23.4897959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="7.02040816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="6" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="6.75"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="23.0816326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="6" width="6.75"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32049,9 +32072,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="54.4030612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="53.7244897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37473,13 +37496,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.1632653061224"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53600,7 +53623,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -61492,7 +61515,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="6" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="6" width="9.58673469387755"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/src/main/resources/TestData/Tenure_Leave_Scenarios.xlsx
+++ b/src/main/resources/TestData/Tenure_Leave_Scenarios.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="All_Scenarios" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,11 +17,11 @@
     <sheet name="Sheet8" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">All_Without_Probation!$A$1:$Y$83</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">All_Without_Probation!$A$1:$Y$83</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">All_Without_Probation!$A$1:$Y$83</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">All_Without_Probation!$A$1:$Y$83</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">All_Without_Probation!$A$1:$Y$83</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">All_Without_Probation!$A$1:$Y$83</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -4060,10 +4060,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -4071,19 +4067,17 @@
   </sheetPr>
   <dimension ref="A1:Z209"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A209" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A209" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C224" activeCellId="0" sqref="C224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.0051020408163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20193,24 +20187,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:Y83"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B56" activeCellId="0" sqref="B56"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="43.8724489795918"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="22" min="6" style="1" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="23" style="6" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="43.3316326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="22" min="6" style="1" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="23" style="6" width="12.1479591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20290,7 +20284,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -20298,7 +20292,7 @@
         <v>241</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>242</v>
@@ -20367,7 +20361,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="102.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -20375,7 +20369,7 @@
         <v>243</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>242</v>
@@ -20444,7 +20438,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="102.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
@@ -20452,7 +20446,7 @@
         <v>244</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>242</v>
@@ -20521,7 +20515,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="102.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -20529,7 +20523,7 @@
         <v>245</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>242</v>
@@ -20598,7 +20592,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="102.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -20606,7 +20600,7 @@
         <v>246</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>242</v>
@@ -20675,7 +20669,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="102.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -20683,7 +20677,7 @@
         <v>247</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>242</v>
@@ -20752,7 +20746,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="102.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -20760,7 +20754,7 @@
         <v>248</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>242</v>
@@ -20829,7 +20823,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="102.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -20837,7 +20831,7 @@
         <v>249</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>242</v>
@@ -20906,7 +20900,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="102.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -20914,7 +20908,7 @@
         <v>250</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>242</v>
@@ -20983,7 +20977,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="102.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -20991,7 +20985,7 @@
         <v>251</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>242</v>
@@ -21060,7 +21054,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
@@ -21068,7 +21062,7 @@
         <v>252</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>242</v>
@@ -21137,7 +21131,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -21145,7 +21139,7 @@
         <v>253</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>242</v>
@@ -21214,7 +21208,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -21222,7 +21216,7 @@
         <v>254</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>242</v>
@@ -21291,7 +21285,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -21299,7 +21293,7 @@
         <v>255</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>242</v>
@@ -21368,7 +21362,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -21376,7 +21370,7 @@
         <v>256</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>242</v>
@@ -21445,7 +21439,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="113.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -21453,7 +21447,7 @@
         <v>257</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>242</v>
@@ -21522,7 +21516,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
@@ -21530,7 +21524,7 @@
         <v>258</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>242</v>
@@ -21599,7 +21593,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -21607,7 +21601,7 @@
         <v>259</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>242</v>
@@ -21676,7 +21670,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -21684,7 +21678,7 @@
         <v>260</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>242</v>
@@ -21753,7 +21747,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
@@ -21761,7 +21755,7 @@
         <v>261</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>242</v>
@@ -21830,7 +21824,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="113.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -21838,7 +21832,7 @@
         <v>262</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>242</v>
@@ -21907,7 +21901,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -21915,7 +21909,7 @@
         <v>263</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>242</v>
@@ -21984,7 +21978,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -21992,7 +21986,7 @@
         <v>264</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>242</v>
@@ -22061,7 +22055,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -22069,7 +22063,7 @@
         <v>265</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>242</v>
@@ -22138,7 +22132,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -22146,7 +22140,7 @@
         <v>266</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>242</v>
@@ -22215,7 +22209,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="113.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -22223,7 +22217,7 @@
         <v>267</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>242</v>
@@ -22292,7 +22286,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
@@ -22300,7 +22294,7 @@
         <v>268</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>242</v>
@@ -22369,7 +22363,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
@@ -22377,7 +22371,7 @@
         <v>269</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>242</v>
@@ -22446,7 +22440,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>25</v>
       </c>
@@ -22454,7 +22448,7 @@
         <v>270</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>242</v>
@@ -22523,7 +22517,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>25</v>
       </c>
@@ -22531,7 +22525,7 @@
         <v>271</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>242</v>
@@ -22600,7 +22594,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="113.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>25</v>
       </c>
@@ -22608,7 +22602,7 @@
         <v>272</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>242</v>
@@ -22677,7 +22671,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>25</v>
       </c>
@@ -22685,7 +22679,7 @@
         <v>273</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>242</v>
@@ -22754,7 +22748,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>25</v>
       </c>
@@ -22762,7 +22756,7 @@
         <v>274</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>242</v>
@@ -22831,7 +22825,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>25</v>
       </c>
@@ -22839,7 +22833,7 @@
         <v>275</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>242</v>
@@ -22908,7 +22902,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>25</v>
       </c>
@@ -22916,7 +22910,7 @@
         <v>276</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>242</v>
@@ -22985,7 +22979,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="113.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>25</v>
       </c>
@@ -22993,7 +22987,7 @@
         <v>277</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>242</v>
@@ -23062,7 +23056,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>25</v>
       </c>
@@ -23070,7 +23064,7 @@
         <v>278</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>242</v>
@@ -23139,7 +23133,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>25</v>
       </c>
@@ -23147,7 +23141,7 @@
         <v>279</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>242</v>
@@ -23216,7 +23210,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>25</v>
       </c>
@@ -23224,7 +23218,7 @@
         <v>280</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>242</v>
@@ -23293,7 +23287,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>25</v>
       </c>
@@ -23301,7 +23295,7 @@
         <v>281</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>242</v>
@@ -23370,7 +23364,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="113.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>25</v>
       </c>
@@ -23378,7 +23372,7 @@
         <v>282</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>242</v>
@@ -23447,7 +23441,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>25</v>
       </c>
@@ -23455,7 +23449,7 @@
         <v>283</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>242</v>
@@ -23524,7 +23518,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="102.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>25</v>
       </c>
@@ -23532,7 +23526,7 @@
         <v>284</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>242</v>
@@ -23601,7 +23595,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="102.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>25</v>
       </c>
@@ -23609,7 +23603,7 @@
         <v>285</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>242</v>
@@ -23678,7 +23672,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="102.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>25</v>
       </c>
@@ -23686,7 +23680,7 @@
         <v>286</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>242</v>
@@ -23755,7 +23749,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="102.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>25</v>
       </c>
@@ -23763,7 +23757,7 @@
         <v>287</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>242</v>
@@ -23832,7 +23826,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="102.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>25</v>
       </c>
@@ -23840,7 +23834,7 @@
         <v>288</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>242</v>
@@ -23909,7 +23903,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="102.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>25</v>
       </c>
@@ -23917,7 +23911,7 @@
         <v>289</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>242</v>
@@ -23986,7 +23980,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="102.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>25</v>
       </c>
@@ -23994,7 +23988,7 @@
         <v>290</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>242</v>
@@ -24063,7 +24057,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="102.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>25</v>
       </c>
@@ -24071,7 +24065,7 @@
         <v>291</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>242</v>
@@ -24140,7 +24134,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="102.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>25</v>
       </c>
@@ -24148,7 +24142,7 @@
         <v>292</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>242</v>
@@ -24217,7 +24211,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>25</v>
       </c>
@@ -24225,7 +24219,7 @@
         <v>293</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>242</v>
@@ -24294,7 +24288,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>25</v>
       </c>
@@ -24302,7 +24296,7 @@
         <v>294</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>242</v>
@@ -24371,7 +24365,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>25</v>
       </c>
@@ -24379,7 +24373,7 @@
         <v>295</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>242</v>
@@ -24456,7 +24450,7 @@
         <v>296</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>242</v>
@@ -24533,7 +24527,7 @@
         <v>297</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>242</v>
@@ -24602,7 +24596,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="113.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>25</v>
       </c>
@@ -24610,7 +24604,7 @@
         <v>298</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>242</v>
@@ -24679,7 +24673,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>25</v>
       </c>
@@ -24687,7 +24681,7 @@
         <v>299</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>242</v>
@@ -24756,7 +24750,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>25</v>
       </c>
@@ -24764,7 +24758,7 @@
         <v>300</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>242</v>
@@ -24987,7 +24981,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="113.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>25</v>
       </c>
@@ -24995,7 +24989,7 @@
         <v>303</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>242</v>
@@ -25064,7 +25058,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>25</v>
       </c>
@@ -25072,7 +25066,7 @@
         <v>304</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>242</v>
@@ -25141,7 +25135,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>25</v>
       </c>
@@ -25149,7 +25143,7 @@
         <v>305</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>242</v>
@@ -25372,7 +25366,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="113.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>25</v>
       </c>
@@ -25380,7 +25374,7 @@
         <v>308</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>242</v>
@@ -25449,7 +25443,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>25</v>
       </c>
@@ -25457,7 +25451,7 @@
         <v>309</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>242</v>
@@ -25526,7 +25520,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>25</v>
       </c>
@@ -25534,7 +25528,7 @@
         <v>310</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>242</v>
@@ -25611,7 +25605,7 @@
         <v>311</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>242</v>
@@ -25688,7 +25682,7 @@
         <v>312</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>242</v>
@@ -25757,7 +25751,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="113.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
         <v>25</v>
       </c>
@@ -25765,7 +25759,7 @@
         <v>313</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>242</v>
@@ -25834,7 +25828,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>25</v>
       </c>
@@ -25842,7 +25836,7 @@
         <v>314</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>242</v>
@@ -25911,7 +25905,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
         <v>25</v>
       </c>
@@ -25919,7 +25913,7 @@
         <v>315</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>242</v>
@@ -25996,7 +25990,7 @@
         <v>316</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>242</v>
@@ -26073,7 +26067,7 @@
         <v>317</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>242</v>
@@ -26142,7 +26136,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="113.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
         <v>25</v>
       </c>
@@ -26150,7 +26144,7 @@
         <v>318</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>242</v>
@@ -26219,7 +26213,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
         <v>25</v>
       </c>
@@ -26227,7 +26221,7 @@
         <v>319</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>242</v>
@@ -26296,7 +26290,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
         <v>25</v>
       </c>
@@ -26304,7 +26298,7 @@
         <v>320</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>242</v>
@@ -26381,7 +26375,7 @@
         <v>321</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>242</v>
@@ -26458,7 +26452,7 @@
         <v>322</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>242</v>
@@ -26527,7 +26521,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="113.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
         <v>25</v>
       </c>
@@ -26535,7 +26529,7 @@
         <v>323</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>242</v>
@@ -26605,23 +26599,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y83">
-    <filterColumn colId="10">
-      <customFilters and="true">
-        <customFilter operator="equal" val="Yes"/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="17">
-      <customFilters and="true">
-        <customFilter operator="equal" val="Yes"/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <customFilters and="true">
-        <customFilter operator="equal" val="Financial Year"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -26629,7 +26606,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -26640,20 +26616,18 @@
   </sheetPr>
   <dimension ref="A1:U83"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A80" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E85" activeCellId="0" sqref="E85"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="6.75"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="23.0816326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="7.02040816326531"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="6" width="6.75"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="12.780612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="6" width="12.780612244898"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -32072,9 +32046,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="53.7244897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="53.0510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37496,13 +37468,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53622,9 +53592,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
@@ -61515,7 +61482,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="6" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="6" width="9.44897959183673"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
